--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.27</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.167</v>
+        <v>18.278</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.555</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.38200000000001</v>
+        <v>21.564</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.255</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.905</v>
+        <v>15.034</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.65604464744644</v>
+        <v>-1.126375702445557</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.6276306431749</v>
+        <v>23.29987014440461</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39.21330350371354</v>
+        <v>28.09462931575736</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.00084079337685</v>
+        <v>0.2295678046329428</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.64821897495994</v>
+        <v>17.61713127666891</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>39.48343890682597</v>
+        <v>23.94084206499549</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35.27446510775627</v>
+        <v>12.51532085824198</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>42.40120131735462</v>
+        <v>27.06024927525994</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44.75689888568738</v>
+        <v>31.80837432265047</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40.07927990742858</v>
+        <v>28.82681251927013</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48.64389486569809</v>
+        <v>35.12198704850802</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.83335644742613</v>
+        <v>38.53725724715104</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.31594984822516</v>
+        <v>7.893545883227905</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>49.92404160026803</v>
+        <v>28.17447015137979</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.22472279695049</v>
+        <v>34.96055377452712</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.94158897028299</v>
+        <v>-0.9082671335775672</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.82497169766699</v>
+        <v>26.72657219988051</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.37866939860019</v>
+        <v>32.36795046744442</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.18894378831848</v>
+        <v>-4.522157348154529</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.74174681681728</v>
+        <v>16.28807004868901</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.54103349934385</v>
+        <v>23.44067816851108</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.35667172907764</v>
+        <v>9.451871557164772</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>42.40602374990877</v>
+        <v>26.78701779177317</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.5890861001246</v>
+        <v>7.912146532207537</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.57764968295412</v>
+        <v>34.68156410840703</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.16498902309375</v>
+        <v>39.12766426951709</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.99728438689815</v>
+        <v>12.16105383311761</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.66313148851899</v>
+        <v>31.85570458078157</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40.50021720487321</v>
+        <v>37.75827386809809</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.30644386895963</v>
+        <v>25.4512488423432</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.44850060588282</v>
+        <v>42.0117017287709</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.80570070878001</v>
+        <v>46.39740770158983</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.10547933354094</v>
+        <v>45.83825287891947</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49.68725116014961</v>
+        <v>52.64024333921265</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.87941670001472</v>
+        <v>56.00066824231887</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.30946036298804</v>
+        <v>22.94739112248076</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>50.94623994075826</v>
+        <v>45.90387516576007</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.25000835334555</v>
+        <v>52.21982207349073</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.86214864332429</v>
+        <v>10.40416442713641</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.76231370497404</v>
+        <v>40.63015459942027</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.31766885999202</v>
+        <v>45.96476121624315</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.17194643614294</v>
+        <v>10.14675709141857</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.74300718966825</v>
+        <v>33.51560428210438</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.54414906421904</v>
+        <v>40.29612932347574</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.37470993979613</v>
+        <v>25.3015429068356</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.43920770183145</v>
+        <v>44.87068738564123</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.83729846045163</v>
+        <v>7.424677249955938</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.82298022343784</v>
+        <v>34.58967135144265</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>40.40837731524855</v>
+        <v>39.13653903510145</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.26094351163393</v>
+        <v>12.62665525836407</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.92368342302893</v>
+        <v>32.79465243299273</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>40.75866009818144</v>
+        <v>38.78444825164354</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.57291276625645</v>
+        <v>25.86185887721254</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.71242662562724</v>
+        <v>42.83945878007418</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.06786131267253</v>
+        <v>47.30833251155669</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.36657330947578</v>
+        <v>47.05443103608576</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.94492216086736</v>
+        <v>53.95987429401104</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>53.13486998923195</v>
+        <v>57.43484306549509</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.56549931336466</v>
+        <v>23.77470783835187</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.19730895826647</v>
+        <v>47.28226280044345</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>55.49794784639713</v>
+        <v>53.69959450940421</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.10727659589898</v>
+        <v>10.35575319280198</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.00458844913778</v>
+        <v>41.01703119030373</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>40.55802566616687</v>
+        <v>46.47870503461362</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.43237418740806</v>
+        <v>11.19817833487598</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.00035770831302</v>
+        <v>35.0822482983769</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>40.79941759810028</v>
+        <v>41.97933120628491</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.63791792818976</v>
+        <v>26.30272991867335</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.6998968108671</v>
+        <v>46.32679885285836</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.24128204804932</v>
+        <v>2.59780167103597</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>37.23178856992215</v>
+        <v>28.57517963392442</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>39.81958357783785</v>
+        <v>33.78459027758454</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.6180017233696</v>
+        <v>6.765947161137621</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.28586273232705</v>
+        <v>25.74235104676691</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.12348703492347</v>
+        <v>32.49016096571986</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.9256545580142</v>
+        <v>19.12492302313219</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.06928945065425</v>
+        <v>35.0541625366965</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.42694735885607</v>
+        <v>40.17180447076505</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40.73362113763459</v>
+        <v>37.47641945008723</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>49.31762577715774</v>
+        <v>44.19790533348608</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.50990327249704</v>
+        <v>47.98976142497308</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.94537983283624</v>
+        <v>15.10662500075783</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50.58568162982626</v>
+        <v>37.23207437991456</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.89015440694363</v>
+        <v>44.50097333779107</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.5208149513517</v>
+        <v>4.399040022927192</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>37.4229163932093</v>
+        <v>33.76353281027136</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.97870460294268</v>
+        <v>39.89727554486128</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.79947182674263</v>
+        <v>3.898000057263189</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>37.37254160601007</v>
+        <v>26.48750321007053</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.17419583784019</v>
+        <v>34.14943557508794</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.00080888317959</v>
+        <v>17.98912916025757</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>43.06688224957192</v>
+        <v>36.87325836025231</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.73173665028696</v>
+        <v>32.19456384279692</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.05586747911893</v>
+        <v>29.11387301200139</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>48.52772290617526</v>
+        <v>37.65794415268309</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.67832443868035</v>
+        <v>41.79483566481108</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.32244955768591</v>
+        <v>7.533943795173951</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>49.77858566475943</v>
+        <v>32.21053415479031</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>54.02633854584069</v>
+        <v>39.57346850108775</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.42981952211136</v>
+        <v>1.373899189151693</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.31344005734886</v>
+        <v>30.72484042871384</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>47.8902335926397</v>
+        <v>37.11062474603553</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>37.22009787530236</v>
+        <v>-2.315155695850294</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>45.7730289134675</v>
+        <v>20.50607181069633</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48.60005408829289</v>
+        <v>28.47368857631891</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>44.68880359326409</v>
+        <v>14.36399743785601</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>51.74022279077267</v>
+        <v>33.45966322167408</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>54.08931950535234</v>
+        <v>39.5447573634637</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.43924246160856</v>
+        <v>40.10387789876503</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.92923104495616</v>
+        <v>48.97378497326805</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>61.10923234036498</v>
+        <v>54.06889680882294</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.67660897626775</v>
+        <v>15.74558368761864</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>59.11997943729103</v>
+        <v>42.85727017723417</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.4072659987175</v>
+        <v>51.09705818769881</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.76641388907044</v>
+        <v>49.95679829116047</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.06812355010059</v>
+        <v>49.31570136807838</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.55693913556006</v>
+        <v>58.4047443420564</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>52.71022644110141</v>
+        <v>62.49717834094245</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.30241069296978</v>
+        <v>25.74587475145956</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.78690433144903</v>
+        <v>53.39945348187231</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>55.03772970573566</v>
+        <v>60.33418563270817</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.36057097224071</v>
+        <v>15.2890752074547</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.26089392081326</v>
+        <v>47.28572070406129</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>48.8393485110903</v>
+        <v>53.24738003920858</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.21392773013326</v>
+        <v>15.19655765626649</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.7850234507205</v>
+        <v>40.62514155982829</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.6139084055396</v>
+        <v>48.10314694744929</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.71808648878834</v>
+        <v>33.14677177845086</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52.7845769143434</v>
+        <v>54.52369652600294</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>55.13517524398749</v>
+        <v>60.18527731647768</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.46298869376742</v>
+        <v>63.31905962003974</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.96987547027841</v>
+        <v>72.70317959647548</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>62.15253394629854</v>
+        <v>77.70279042017175</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.66835297512981</v>
+        <v>36.92454410103826</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>60.13991900817176</v>
+        <v>67.06542106630374</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.43026959234803</v>
+        <v>74.74673894980324</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>46.02536006534844</v>
+        <v>51.52142577124799</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.32603864114303</v>
+        <v>51.09995033438972</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.8114642412654</v>
+        <v>60.29075205810214</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>52.96256140252573</v>
+        <v>64.51252255841722</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>37.55533588231173</v>
+        <v>27.17521880182648</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.03491019572903</v>
+        <v>55.42644602023782</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.28264610781149</v>
+        <v>62.49445342073182</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>38.60028427537233</v>
+        <v>16.47993210806385</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>46.49774393331123</v>
+        <v>48.92899322580573</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>49.07426784369708</v>
+        <v>54.97343856549431</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.46864862667056</v>
+        <v>17.55256066766479</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>47.03665527837099</v>
+        <v>43.51130651028572</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.86344245627235</v>
+        <v>51.05905455787858</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.97540743656582</v>
+        <v>35.47782556814968</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>53.0393688870978</v>
+        <v>57.32389558495717</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>55.38821178035525</v>
+        <v>63.05380093978188</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>50.71505277714029</v>
+        <v>66.4203814312054</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>59.21853125319088</v>
+        <v>75.90404765088469</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62.39896977983021</v>
+        <v>81.00855685996038</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>46.91556294053627</v>
+        <v>39.65323167089933</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>60.3821956263787</v>
+        <v>70.40665316994657</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>64.66943190745562</v>
+        <v>78.1714231329902</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.39452462111005</v>
+        <v>42.72227882536316</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.70297653696189</v>
+        <v>39.65497240814231</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>49.19402236337579</v>
+        <v>48.6779651382692</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.34739476666123</v>
+        <v>53.24211563654761</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.94484579942274</v>
+        <v>16.7047180959803</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.43284669204844</v>
+        <v>43.44827666094998</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.68433802955678</v>
+        <v>51.38027371900372</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>38.01754773465287</v>
+        <v>10.1843568074865</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.91976980243395</v>
+        <v>41.34627903574467</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.49876081359884</v>
+        <v>48.15038426961721</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>37.84024281510386</v>
+        <v>9.754226875815007</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.41330973808631</v>
+        <v>34.43834037715592</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.24282434495452</v>
+        <v>42.8354468311686</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.34289031509598</v>
+        <v>26.69183144595279</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.41092697345692</v>
+        <v>47.41212471798094</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.7620563514843</v>
+        <v>53.87068656598431</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.09664589428413</v>
+        <v>54.54890853016362</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.60573376792219</v>
+        <v>63.90467458282691</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.78862744196141</v>
+        <v>69.40475435559109</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>46.30971673250013</v>
+        <v>28.67777012782958</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.78472230837424</v>
+        <v>57.95001010770267</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.07592697643032</v>
+        <v>66.67730697481322</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.34366470426149</v>
+        <v>-4.681554368269435</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.15679586398538</v>
+        <v>18.91271045693258</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.7239983188771</v>
+        <v>23.45832147530588</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.41927822023462</v>
+        <v>-4.31420157557184</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.89394427463557</v>
+        <v>12.28204673263461</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.71219579973035</v>
+        <v>18.32036378600994</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.37632306828021</v>
+        <v>8.173655837879203</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.36044676529471</v>
+        <v>21.99762828346634</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>39.70045260979225</v>
+        <v>26.50324605273207</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.00257003430328</v>
+        <v>22.63808779751436</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.37259006701834</v>
+        <v>28.87076261346173</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.56548193339476</v>
+        <v>32.05812231100559</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.13204330970373</v>
+        <v>1.299891120487096</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>44.47716781121859</v>
+        <v>20.75402839328044</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>48.74585312621166</v>
+        <v>27.06991794387115</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.63786383499195</v>
+        <v>-3.977512204510113</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.36159546350013</v>
+        <v>22.96262620273243</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.89744642172826</v>
+        <v>28.47008429975054</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.6184108071839</v>
+        <v>-8.186730348290627</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.99716463697527</v>
+        <v>11.94120606433847</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.78009534768913</v>
+        <v>18.94221629573115</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.47017281207958</v>
+        <v>6.2842493145303</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.37578840266841</v>
+        <v>23.00045289351175</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.26461850039691</v>
+        <v>2.84152375845288</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.09446721651972</v>
+        <v>28.76820505981549</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.66332248300813</v>
+        <v>33.00846781299562</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>24.40271245643568</v>
+        <v>5.93659576506122</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.89554922480994</v>
+        <v>24.82227132134309</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>35.71566780444029</v>
+        <v>30.49149909011267</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.39467251889323</v>
+        <v>19.41595583900734</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>38.39387480782482</v>
+        <v>35.24371859397978</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.73537743164534</v>
+        <v>39.4307933964679</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.0149107342143</v>
+        <v>37.79661455263756</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>44.40179904598077</v>
+        <v>44.54687883225867</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.59739032650348</v>
+        <v>47.69676232960953</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.11174491536368</v>
+        <v>14.49552651023169</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.48508968352112</v>
+        <v>36.61420233445396</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.75686829495505</v>
+        <v>42.51085096356859</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.54626592530241</v>
+        <v>5.585306364135992</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.28652071813595</v>
+        <v>35.09825202790757</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.82401596884844</v>
+        <v>40.3574980827098</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>24.58832180257071</v>
+        <v>4.564103304306641</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.98503623638368</v>
+        <v>27.22359930797895</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.76982382326175</v>
+        <v>33.92241485791266</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.47449722166587</v>
+        <v>20.20820543984508</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.39501744947779</v>
+        <v>39.1386992329437</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.5143240584915</v>
+        <v>2.049240713881971</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.34138038304043</v>
+        <v>28.37401517631877</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.90832248828515</v>
+        <v>32.71717922616435</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.667926166681</v>
+        <v>6.057227016635117</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.15774944904314</v>
+        <v>25.41656857578195</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.97579216972078</v>
+        <v>31.1768013749015</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>31.66284091915754</v>
+        <v>19.47076838219176</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.65957921842759</v>
+        <v>35.7171803138361</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.99934387270785</v>
+        <v>39.99027844782955</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.277775088064</v>
+        <v>38.6417918853313</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.66134961759229</v>
+        <v>45.49404438777048</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.85474776949195</v>
+        <v>48.75887806708596</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>32.36961440219577</v>
+        <v>14.95787522239172</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.7381279964788</v>
+        <v>37.62975033013105</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>50.0068326212747</v>
+        <v>43.63174325246833</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.79286329950637</v>
+        <v>5.134447690233465</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.53035521860981</v>
+        <v>35.08176242944816</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.06596122870646</v>
+        <v>40.47161182048446</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.8502753304579</v>
+        <v>5.168287458804805</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>33.24400725350539</v>
+        <v>28.33979246908302</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.0267456552497</v>
+        <v>35.16072711483949</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.73937427549281</v>
+        <v>20.7472276303759</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>38.65745535467007</v>
+        <v>40.1311359821987</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.91674050584961</v>
+        <v>-1.913451288586419</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.7483996179859</v>
+        <v>23.21816166134879</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>35.31783505229576</v>
+        <v>28.17274284370463</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.02344611248732</v>
+        <v>1.148005687659296</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>32.51815862837798</v>
+        <v>19.31657067585697</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.33894787075018</v>
+        <v>25.77541749853513</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.01378523636268</v>
+        <v>13.67894460599439</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.01444949031402</v>
+        <v>28.87445892706103</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.35652222993236</v>
+        <v>33.74580999003665</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.64280338042661</v>
+        <v>30.1380870328643</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.03173477996232</v>
+        <v>36.79178597464525</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.22763512119314</v>
+        <v>40.34613775424373</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>31.7472279527794</v>
+        <v>7.373270691739179</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>45.12388816437879</v>
+        <v>28.65860776160683</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>49.39655915588889</v>
+        <v>35.44968027946</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.20489040388777</v>
+        <v>0.1238290316719066</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.94694709656238</v>
+        <v>28.77526810612914</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.48500055168733</v>
+        <v>34.77263107596527</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.21590441019388</v>
+        <v>-1.094809185066126</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.61448745455894</v>
+        <v>20.79064478526121</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>35.39992024886386</v>
+        <v>28.30164222372365</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.10053854260683</v>
+        <v>13.45725058633534</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.02251630514203</v>
+        <v>31.70547741197274</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>39.68635859160276</v>
+        <v>28.28191292372346</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>34.99333664603658</v>
+        <v>24.2849103730786</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>43.26952531734832</v>
+        <v>32.89332538678443</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>46.42362574983416</v>
+        <v>36.88013405055193</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.15698470861732</v>
+        <v>2.3080441494868</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>44.34810060230027</v>
+        <v>26.27554952556621</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>48.56462893878538</v>
+        <v>33.33083608957995</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>33.79490190166311</v>
+        <v>0.3073372858376011</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>41.53985775279818</v>
+        <v>29.20032029583091</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>44.0985716380012</v>
+        <v>35.53192244273119</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>33.35466515759038</v>
+        <v>-4.146300978588556</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>41.75647156149905</v>
+        <v>18.23037014325847</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>44.56700836312928</v>
+        <v>26.13595110552511</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>40.54386957252356</v>
+        <v>13.25469941755007</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.4704731871748</v>
+        <v>31.94368344716274</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.80435421907893</v>
+        <v>37.9791854679914</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>45.12335711968151</v>
+        <v>37.40300825781175</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>53.44145896586704</v>
+        <v>46.41523161919052</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>56.62534584708436</v>
+        <v>51.35962361082487</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>41.24265603830344</v>
+        <v>12.48103063229137</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.45667726022741</v>
+        <v>39.1608753794229</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>58.71329875336761</v>
+        <v>47.19642720747234</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.70707557617651</v>
+        <v>44.15797492000004</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.9916502060221</v>
+        <v>42.42268460425391</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.28451198982577</v>
+        <v>51.58502905560789</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>47.441293306581</v>
+        <v>55.55385470028162</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.12305799815027</v>
+        <v>18.45887714107035</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>45.34206557239331</v>
+        <v>45.38208643347036</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.56167310785606</v>
+        <v>52.07944535050761</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.71460245184548</v>
+        <v>12.67320210559026</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.47601496325516</v>
+        <v>44.20077520973643</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.03637152176486</v>
+        <v>50.1659562021656</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>34.33663575122757</v>
+        <v>11.65340211310826</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.75632430282207</v>
+        <v>36.61862834454242</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.56871655649027</v>
+        <v>44.10260083879293</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>41.56071965464432</v>
+        <v>30.32953052588304</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>48.50216545784987</v>
+        <v>51.28710594885243</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.83753796370623</v>
+        <v>56.95689077947003</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>46.13446225741425</v>
+        <v>58.7723999727006</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>54.46918918891203</v>
+        <v>68.31381448066827</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>57.6557262353447</v>
+        <v>73.18753511167253</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>42.22180054394922</v>
+        <v>31.80878382462553</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>55.46357512425707</v>
+        <v>61.50570035851888</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>59.72325753487014</v>
+        <v>69.05141723229207</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.96779765422512</v>
+        <v>45.26316230957543</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.25130310968096</v>
+        <v>43.73299700139363</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.54088494356022</v>
+        <v>52.99459586101673</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>47.69550052624635</v>
+        <v>57.09339455367908</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>32.37777909997627</v>
+        <v>19.42012601029312</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.59200768280408</v>
+        <v>46.9393512628386</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.80858086898806</v>
+        <v>53.77584424516733</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.95540237110437</v>
+        <v>13.48214419590822</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.71402790423952</v>
+        <v>45.46201365569828</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.27248053552206</v>
+        <v>51.51288331620484</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>34.59249548544891</v>
+        <v>13.58952530706729</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>43.00917451075732</v>
+        <v>39.08256108307356</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.81949937715154</v>
+        <v>46.6410834327226</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>41.8193027498523</v>
+        <v>32.22569268959103</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>48.75828678009126</v>
+        <v>53.65159628226891</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>51.09192898281375</v>
+        <v>59.39327730836165</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.3878600992678</v>
+        <v>61.42721443295781</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.71927337102906</v>
+        <v>71.06625393821994</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.9036126744995</v>
+        <v>76.0450623406886</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>42.47041401905808</v>
+        <v>34.0960987979897</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>55.70737214840327</v>
+        <v>64.40495646045142</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.96399089147997</v>
+        <v>72.03901494108462</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.33512358186125</v>
+        <v>37.42781528057553</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.62629699031235</v>
+        <v>33.42826366764126</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.92119660447415</v>
+        <v>42.51152778689794</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.07826033195168</v>
+        <v>46.91749537276012</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>31.76510396310457</v>
+        <v>10.08949791479027</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>44.98740863137545</v>
+        <v>36.10558568143141</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.20787118669239</v>
+        <v>43.72703702247466</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.37194468209651</v>
+        <v>7.97915264361523</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.13514405897067</v>
+        <v>38.67273760488253</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.69616180541194</v>
+        <v>45.42033531392667</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.9634028251842</v>
+        <v>6.670536730138629</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>42.38494653983507</v>
+        <v>30.89662668614269</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.19810074919093</v>
+        <v>39.23247973339801</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>41.18589518148049</v>
+        <v>24.30032415834861</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.12878934833725</v>
+        <v>44.60424763576412</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>50.46480538539274</v>
+        <v>51.01272453109002</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>45.7683403411783</v>
+        <v>50.53469744277511</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>54.10510641493763</v>
+        <v>60.03176025443339</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.29207486611818</v>
+        <v>65.37205701848002</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>41.86318750509213</v>
+        <v>24.10424416833839</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>55.1082284752506</v>
+        <v>52.9357396135657</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>59.36895459027546</v>
+        <v>61.45589526147717</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-7.407024568462447</v>
+        <v>0.2051844213555469</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.5580455309898582</v>
+        <v>25.2571631122727</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>3.135297713868944</v>
+        <v>29.8198962478522</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-9.382664504426991</v>
+        <v>1.591091991344737</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-0.7420975408116419</v>
+        <v>19.60402418146312</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>2.083088293262719</v>
+        <v>25.67450199057604</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2.91647483464989</v>
+        <v>14.26856453383136</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>4.205293361761299</v>
+        <v>29.35138333031377</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>6.552442203840002</v>
+        <v>33.88013457383217</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>2.792237894301877</v>
+        <v>30.57462617643836</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>11.34749285294959</v>
+        <v>37.19570168268285</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>14.5285801829091</v>
+        <v>40.37710978563609</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.1497002939282623</v>
+        <v>8.993695856044532</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.74285024050464</v>
+        <v>29.97463418154823</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.0295746271667</v>
+        <v>36.46272428279087</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-6.713442938270575</v>
+        <v>2.429952389494503</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1.16340569595431</v>
+        <v>30.78368566466879</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.708782323933384</v>
+        <v>36.09587750606764</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-8.771671804337586</v>
+        <v>-1.12021322619508</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-0.2257079580701671</v>
+        <v>20.40232402016677</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>2.563665891012633</v>
+        <v>27.19266227612194</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-2.40247148365777</v>
+        <v>13.41435154589036</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>4.641876208196116</v>
+        <v>31.36457815476062</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-6.511602435508294</v>
+        <v>9.184681289186695</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1.470400873568394</v>
+        <v>36.60210886706089</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>4.0493232289747</v>
+        <v>40.80357676377153</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-8.425358163718172</v>
+        <v>13.434684277825</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.2336303942582205</v>
+        <v>33.77626261011684</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>3.060687276275708</v>
+        <v>39.41261999982773</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1.924453993957741</v>
+        <v>27.1305378465795</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>5.212594949418438</v>
+        <v>44.24872100187196</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>7.561250309342562</v>
+        <v>48.40340192651</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>3.779412560393233</v>
+        <v>47.50388725947742</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>12.35175535458677</v>
+        <v>54.64089852596015</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>15.53554989329455</v>
+        <v>57.75724503250726</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1.105310883788484</v>
+        <v>23.94356201598166</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.72707419254293</v>
+        <v>47.62593740422806</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>19.01689527999406</v>
+        <v>53.62872218417765</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-5.830082441188075</v>
+        <v>13.59539559044744</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2.063505001297486</v>
+        <v>44.55996461798385</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>4.61054213242106</v>
+        <v>49.5519271424442</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-7.827371127409705</v>
+        <v>13.37365775990663</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.736804071434868</v>
+        <v>37.47315918549647</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>3.528037650242595</v>
+        <v>43.87776549076979</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.42394701598537</v>
+        <v>29.10290303900925</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.635507454177926</v>
+        <v>49.30426443874616</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-6.241709629193089</v>
+        <v>8.729859667487467</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.737413010974194</v>
+        <v>36.54493659128431</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4.314401934279417</v>
+        <v>40.84249690008254</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-8.139262309637047</v>
+        <v>13.93201206884315</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.5166203064558346</v>
+        <v>34.74900005820358</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>3.341578794397023</v>
+        <v>40.46810962388281</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1.635056091219155</v>
+        <v>27.57314428225823</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>5.499450294862207</v>
+        <v>45.11058871533199</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>7.846349219319542</v>
+        <v>49.34438632060464</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>4.062888944486645</v>
+        <v>48.75495014207051</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>12.63180627262357</v>
+        <v>55.99573862510961</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.81339202621059</v>
+        <v>59.22421873389953</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>1.383044749508237</v>
+        <v>24.80395624118631</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14.99984300744045</v>
+        <v>49.04042447421695</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.28655001255681</v>
+        <v>55.13932735327689</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-5.563523254667295</v>
+        <v>13.53564033181804</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.327212316304212</v>
+        <v>44.9368540505288</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>4.872340070796845</v>
+        <v>50.0508741091073</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-7.544764897031541</v>
+        <v>14.41191647953352</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1.016334536710986</v>
+        <v>39.02798378119677</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>3.805496485432542</v>
+        <v>45.544416494442</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1.138073867595729</v>
+        <v>30.08947481009751</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>5.918862244163776</v>
+        <v>50.7472659870558</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-6.892817388063321</v>
+        <v>4.079673642126718</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.091168855449524</v>
+        <v>30.69940393842215</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>3.670537784469246</v>
+        <v>35.66191945115412</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-8.839213779214511</v>
+        <v>8.278296988821161</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.1781673646691573</v>
+        <v>27.89656952278665</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2.649416001245363</v>
+        <v>34.37641931292613</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2.34058245329188</v>
+        <v>21.03687485390512</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>4.798082275805676</v>
+        <v>37.5188598907133</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.147185726564778</v>
+        <v>42.4040275974172</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>3.373039454666994</v>
+        <v>39.39252509097319</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.94765686208274</v>
+        <v>46.44568028738672</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.13155433527344</v>
+        <v>49.99441115938225</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.7077386570079369</v>
+        <v>16.35561937542663</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>14.33308500156856</v>
+        <v>39.20127458245619</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>18.62359198378814</v>
+        <v>46.15476790136099</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-6.204450303640897</v>
+        <v>7.817598893589523</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1.691112519442321</v>
+        <v>37.91801491917019</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>4.238574326815517</v>
+        <v>43.70433373162561</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-8.23402851261406</v>
+        <v>7.379015186602366</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.3321985661824556</v>
+        <v>30.6975358255299</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.123933220677031</v>
+        <v>37.97901823715605</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1.83278873264026</v>
+        <v>22.0374543188925</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.228278039083335</v>
+        <v>41.55182774440291</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.959146179187925</v>
+        <v>36.45833737610941</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>3.190149811102096</v>
+        <v>33.24921283597104</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.65266631100847</v>
+        <v>42.16272426337706</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.79485648135847</v>
+        <v>46.03393903751501</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.5647102704072253</v>
+        <v>11.02630439059186</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.00597950778874</v>
+        <v>36.50628778045874</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>18.23991481718678</v>
+        <v>43.45299466737391</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>2.674910885988695</v>
+        <v>4.211137772219608</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>10.55220317159821</v>
+        <v>34.25176804690976</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.1211838998415</v>
+        <v>40.35153231334604</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.194091310808815</v>
+        <v>0.5157548394894818</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.740408347524216</v>
+        <v>24.0161638070079</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.55808165765538</v>
+        <v>31.66939839238728</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>7.885579505355402</v>
+        <v>17.7614091362876</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>14.93216361153668</v>
+        <v>37.44520902608491</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.27328450904272</v>
+        <v>43.25648252260223</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.50844443840504</v>
+        <v>43.7130426364328</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.98932898241566</v>
+        <v>52.93600375773827</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.16173365334323</v>
+        <v>57.7618606739557</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.82621240337863</v>
+        <v>18.73245362753736</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.25506096011572</v>
+        <v>46.61567535887427</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.52946189297165</v>
+        <v>54.49051470496421</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>7.954274081115464</v>
+        <v>54.06434954817446</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>4.163813965795114</v>
+        <v>53.28841740326045</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>12.64322286130388</v>
+        <v>62.75339875770632</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>15.78810131337411</v>
+        <v>66.57094709700284</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1.5071914438793</v>
+        <v>29.05887863654789</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>14.97674519442916</v>
+        <v>57.53819326325878</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.21376140018908</v>
+        <v>64.04094828957767</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>3.569286503211437</v>
+        <v>17.97501514329025</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.46323660630482</v>
+        <v>50.6806316802798</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>14.03388328292563</v>
+        <v>56.34181187750393</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>2.150082061288586</v>
+        <v>17.85001231823004</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.71451611118661</v>
+        <v>43.97586460204964</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>13.53405579915998</v>
+        <v>51.12456584956038</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>8.876231111196404</v>
+        <v>36.3800533124821</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.93784630927072</v>
+        <v>58.3620192344256</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>18.28047395117044</v>
+        <v>63.73644787160262</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>14.49446473780152</v>
+        <v>66.76363725411758</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>22.99217939029506</v>
+        <v>76.50709473417814</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.16724574046861</v>
+        <v>81.22722147725666</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>11.78131889014907</v>
+        <v>39.73075439552125</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.2382883458039</v>
+        <v>70.66533063920744</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.51576460176775</v>
+        <v>77.96453999116402</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>8.235894666341586</v>
+        <v>55.61156735064131</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.443853793008827</v>
+        <v>55.06015172761514</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.91987046916534</v>
+        <v>64.62666172134314</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.06256755493</v>
+        <v>68.57098649443464</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1.781561774472969</v>
+        <v>30.47486919788474</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.24620131532101</v>
+        <v>59.5540174095905</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.4801431030591</v>
+        <v>66.18451959763038</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>3.829868908282364</v>
+        <v>19.15641523958601</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>11.72095644821853</v>
+        <v>52.31572691560058</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>14.2896810136814</v>
+        <v>58.05398198634121</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.426399152138124</v>
+        <v>20.1953990098077</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.98774489403293</v>
+        <v>46.8526755472937</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.80519717063479</v>
+        <v>54.06560095968254</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.15562181144707</v>
+        <v>38.69913204984755</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.21470795403459</v>
+        <v>61.15168606904054</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.55558891074212</v>
+        <v>66.58945147512671</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>14.76807218476939</v>
+        <v>69.85513449135458</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.26237586924357</v>
+        <v>79.69779879708592</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.43523073159726</v>
+        <v>84.51981565208463</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.04941029780699</v>
+        <v>42.44908309493454</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.50145055067056</v>
+        <v>73.99832702465736</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.7758274373533</v>
+        <v>81.37455962876768</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>7.547471820233795</v>
+        <v>47.07087186892976</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>3.764540974765588</v>
+        <v>43.88730747429723</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>12.24622083238453</v>
+        <v>53.28515402466495</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.39117609120758</v>
+        <v>57.57339288567061</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.116512387050918</v>
+        <v>20.27742981348253</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>14.58963269580448</v>
+        <v>47.84501786578942</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.8272975991546</v>
+        <v>55.33959634630204</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>3.194163234070039</v>
+        <v>13.0947518329487</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>11.09005331737269</v>
+        <v>44.96318533297781</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>13.6612267520488</v>
+        <v>51.46213515722162</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.743179962949384</v>
+        <v>12.65602749982537</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.30963010047068</v>
+        <v>38.03573835559102</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.12978676148867</v>
+        <v>46.09934078658667</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>8.467083087011993</v>
+        <v>30.16808816740657</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>15.53028288076599</v>
+        <v>51.49151932359852</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.87343135585345</v>
+        <v>57.65920785265889</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>14.09496370337502</v>
+        <v>58.24926893305982</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.59492226104247</v>
+        <v>67.96354224460502</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.7702139849783</v>
+        <v>73.1824609175746</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.39050736029031</v>
+        <v>31.74049312397379</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.85097875457668</v>
+        <v>61.8047529273359</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.12928995286666</v>
+        <v>70.14472699442837</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.9390747562521</v>
+        <v>-7.662715685375268</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.5034942819897</v>
+        <v>13.88572124386048</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.00423666552752</v>
+        <v>18.27491707430858</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.69296585664135</v>
+        <v>-8.200006318871733</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.8977965923612</v>
+        <v>6.612518372180006</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.64217588623019</v>
+        <v>12.40628933205081</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.27703708006255</v>
+        <v>3.282684544081846</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.0390436066488</v>
+        <v>15.55611057070808</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.31739521101241</v>
+        <v>19.88269189518491</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.90663130740683</v>
+        <v>16.16012214622227</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.00523928242504</v>
+        <v>21.63832097347074</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.11972339638425</v>
+        <v>24.82915096073069</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.32275691311412</v>
+        <v>-3.459169099963912</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>37.24203475879358</v>
+        <v>13.99141323870132</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>41.39937951744682</v>
+        <v>20.02036078834365</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.28185925238592</v>
+        <v>-6.619933205463266</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.75938702530106</v>
+        <v>18.09659477505842</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.22978705516508</v>
+        <v>23.53552355870072</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.9465671948548</v>
+        <v>-11.35194173633483</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.05817745810381</v>
+        <v>6.800361373328688</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>27.76837686436123</v>
+        <v>13.67006132678621</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.42895186135804</v>
+        <v>1.978378617984664</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.11465238007083</v>
+        <v>16.98632209746324</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.83391181920993</v>
+        <v>-0.5258552503538461</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.4146078139852</v>
+        <v>23.25361864295475</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.91701410435327</v>
+        <v>27.36058109840503</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.64873413630817</v>
+        <v>1.558796013626729</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.87125513306223</v>
+        <v>18.56163053179396</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.61751397670875</v>
+        <v>24.0121310595401</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.26679121170052</v>
+        <v>13.9853800197616</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.04347794501891</v>
+        <v>28.17522853502958</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.32333816279912</v>
+        <v>32.20553170493348</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.8906082911418</v>
+        <v>30.58913380774557</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.00563674369356</v>
+        <v>36.56215813835878</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.12281402650683</v>
+        <v>39.73014325116466</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.2749665337017</v>
+        <v>9.096358366509717</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.22171627750953</v>
+        <v>29.09667120043596</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.38216502245849</v>
+        <v>34.7350630105125</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.16443078784005</v>
+        <v>2.546308282966937</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.65804623871873</v>
+        <v>29.72650364181219</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.13010131501019</v>
+        <v>34.94286185952289</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.88911827651883</v>
+        <v>0.8812131080480725</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.01821478864912</v>
+        <v>21.45920992767036</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.73028316934939</v>
+        <v>28.0552065143324</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.40499755961491</v>
+        <v>15.33526451458696</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.10520938591645</v>
+        <v>32.46393683965206</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.08309316093111</v>
+        <v>-1.334008395066945</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.66110903892682</v>
+        <v>22.83142803698783</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.16166233086386</v>
+        <v>27.04316223293217</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.91336324306355</v>
+        <v>1.627448408394962</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.13299197207336</v>
+        <v>19.08867239167516</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.87724184240068</v>
+        <v>24.63291935838966</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.53447147825385</v>
+        <v>13.99196023273078</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.3087934918287</v>
+        <v>28.58695902687399</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.58697188251315</v>
+        <v>32.70540555880901</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.15303339277915</v>
+        <v>31.35221521667918</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.26488055761044</v>
+        <v>37.4251012534172</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.37993047008844</v>
+        <v>40.70689925610851</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.53236237439695</v>
+        <v>9.493075255243982</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>38.47447430178392</v>
+        <v>30.02806127795339</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.63194797647558</v>
+        <v>35.77480114329107</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.41052644375442</v>
+        <v>2.058248675016507</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.90149058055871</v>
+        <v>29.65917279194966</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.37171564488224</v>
+        <v>35.00781587959987</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.15050931603395</v>
+        <v>1.404164301106764</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.27674379774608</v>
+        <v>22.47746325636415</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.9868288204776</v>
+        <v>29.19802493064384</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.6694079719358</v>
+        <v>15.79790790655283</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.36727933751578</v>
+        <v>33.36512449299214</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>18.48792529805375</v>
+        <v>-5.212302677944979</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.07035724846215</v>
+        <v>17.79940862979403</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.57327583245155</v>
+        <v>22.5957954542132</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.27180135876253</v>
+        <v>-3.176752873993568</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.49612116064313</v>
+        <v>13.1319722743711</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.2429753262242</v>
+        <v>19.34442514181627</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.88808329164502</v>
+        <v>8.338297859477812</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.66617143238506</v>
+        <v>21.91654435763179</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.94653793657931</v>
+        <v>26.60732722799236</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.52058267549548</v>
+        <v>23.10493832281722</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.63756430999599</v>
+        <v>28.98253539237225</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.75498359087109</v>
+        <v>32.53595597161783</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.91251286778817</v>
+        <v>2.136976272841618</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>37.86244483163962</v>
+        <v>21.33045821722116</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.02367817905271</v>
+        <v>27.83181609685127</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>18.82486749935916</v>
+        <v>-2.89785964636523</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.32021068587948</v>
+        <v>23.4482176878781</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.7927572420564</v>
+        <v>29.37655076684594</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.51895306146926</v>
+        <v>-4.772658611436476</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.64984145085101</v>
+        <v>15.05312535202688</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.3624810067294</v>
+        <v>22.43253246005652</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.03313668165656</v>
+        <v>8.627820611048904</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.73474561817926</v>
+        <v>25.09411020348483</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.36452354027995</v>
+        <v>22.18559178434167</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.95686114369413</v>
+        <v>18.1244280712669</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.9642350920697</v>
+        <v>25.86402690474346</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.04111622316154</v>
+        <v>29.87957366750942</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.40478572299972</v>
+        <v>-2.164140700514658</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.17435421767858</v>
+        <v>19.5545625705728</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>41.28120689203575</v>
+        <v>26.46015350592132</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.47816252171951</v>
+        <v>-1.81696949620833</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.97999646636735</v>
+        <v>24.85209140578039</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>37.47286301965306</v>
+        <v>31.08559476211037</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.71597033661007</v>
+        <v>-6.759373791048123</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.8539550180844</v>
+        <v>13.63290883520052</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>37.59132303241805</v>
+        <v>21.37513361705413</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.5383791603963</v>
+        <v>9.414868554995355</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.24776822440272</v>
+        <v>26.38818228010711</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.52058985787413</v>
+        <v>32.31438671965906</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.11832985304872</v>
+        <v>31.51027001706274</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>46.17115854033344</v>
+        <v>39.67412324030795</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>49.27725391250694</v>
+        <v>44.6398780044013</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.51623934160543</v>
+        <v>8.351038366665271</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.31438944786028</v>
+        <v>32.75687480773264</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.46073241125965</v>
+        <v>40.61576497420627</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.35657999903962</v>
+        <v>37.42566120238395</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.92712638191598</v>
+        <v>35.49823366094498</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.95073119668798</v>
+        <v>43.76969259524189</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.03028670539888</v>
+        <v>47.78259898128879</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.34367270180857</v>
+        <v>13.30883056280139</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.1403939491245</v>
+        <v>37.8595801904101</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.25033588067257</v>
+        <v>44.43904485630098</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.37211611342777</v>
+        <v>10.09862048351872</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.88997330945109</v>
+        <v>39.29086072190785</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.38449247460005</v>
+        <v>45.1895025279901</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.67066710969275</v>
+        <v>8.462372521775315</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.82606200051112</v>
+        <v>31.33497835575955</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.5652967617949</v>
+        <v>38.69035357409795</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.5270393484341</v>
+        <v>25.86196907658049</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.25087918506153</v>
+        <v>45.00815331858015</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.52520300830328</v>
+        <v>50.598676989119</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>39.10146941901129</v>
+        <v>52.05852545008347</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>47.17048377925263</v>
+        <v>60.7300901407304</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>50.27922292812358</v>
+        <v>65.64339372259896</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.46826721081985</v>
+        <v>26.94255341611661</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>48.29343643495034</v>
+        <v>54.23920807741734</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>52.44284956131367</v>
+        <v>61.64694377236418</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.61698938251264</v>
+        <v>38.44145724988488</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.18636008983076</v>
+        <v>36.70166398672492</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.20681662076736</v>
+        <v>45.0708304781467</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.28427109451469</v>
+        <v>49.21250349401822</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.59793989598323</v>
+        <v>14.17804421080422</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.39007422724938</v>
+        <v>39.30467472874305</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.49707917428915</v>
+        <v>46.02594315182925</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.61238993296134</v>
+        <v>10.82681520908331</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.12756901253289</v>
+        <v>40.45669051812339</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.62024352695227</v>
+        <v>46.44490077473377</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.92594401158805</v>
+        <v>10.27238661756003</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.07844698303749</v>
+        <v>33.65512060521663</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.81568024779654</v>
+        <v>41.08983413293944</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.78513381341888</v>
+        <v>27.63588077704665</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>41.50660817535089</v>
+        <v>47.23462691864677</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.77925698039367</v>
+        <v>52.90092978518716</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.35442847524646</v>
+        <v>54.56207006915163</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.4202578306017</v>
+        <v>63.32943232531495</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.52686442660159</v>
+        <v>68.34774722563051</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.71640900897261</v>
+        <v>29.0934888332266</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.53694930453197</v>
+        <v>56.98098229590343</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.68339622526673</v>
+        <v>64.48224481514907</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.98660264132938</v>
+        <v>30.73402911403693</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.56377633500615</v>
+        <v>26.6433083859923</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.58932924072234</v>
+        <v>34.83514675840354</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.66910140387932</v>
+        <v>39.26555250590199</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.98770586380437</v>
+        <v>5.065886031022803</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.78759148154499</v>
+        <v>28.73538995911449</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>41.89828258625693</v>
+        <v>36.20637401292245</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.03141545372323</v>
+        <v>5.366168588636949</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.55098837948805</v>
+        <v>33.75108506325909</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.04610077386852</v>
+        <v>40.40427532796038</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.29981121947535</v>
+        <v>3.433330224282457</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.45698776055075</v>
+        <v>25.58793705875467</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.1969089245101</v>
+        <v>33.76457567833258</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.15444537569114</v>
+        <v>19.81991899066899</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.87967573026756</v>
+        <v>38.33170619294367</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.1545791911785</v>
+        <v>44.63448674697324</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.73747818649369</v>
+        <v>43.89825374608846</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.80844538456677</v>
+        <v>52.52350847196023</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>49.91754785751275</v>
+        <v>57.88319608554468</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.11176472767573</v>
+        <v>19.30712822578363</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.94007312661856</v>
+        <v>45.76329842307455</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>52.09042138106386</v>
+        <v>54.11087651482212</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>144.1121068379427</v>
+        <v>2.640521977719573</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>153.0138016834744</v>
+        <v>26.72858657651855</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>155.9378222947324</v>
+        <v>31.364163478043</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>147.5271590440337</v>
+        <v>4.45762006388329</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>157.1822475007187</v>
+        <v>21.648036770382</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>160.3909405106107</v>
+        <v>27.77548321811646</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>158.2567426112618</v>
+        <v>16.43417454145506</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>166.2100917948666</v>
+        <v>30.82549904353064</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>168.8761132065559</v>
+        <v>35.42054757099166</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>160.5325460794438</v>
+        <v>32.32479718955091</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>170.0920522925483</v>
+        <v>38.53172524097423</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>173.7064200286422</v>
+        <v>41.82051361939637</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>152.483836548865</v>
+        <v>11.75958943308658</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>167.7069793191336</v>
+        <v>31.78583228159088</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>172.5676704432142</v>
+        <v>38.37776321542191</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>143.1785372850996</v>
+        <v>2.640105464684144</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>151.9805112890892</v>
+        <v>29.83692396221793</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>154.868496032027</v>
+        <v>35.2219799231524</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>146.4403179839197</v>
+        <v>-0.453637111203296</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>155.9885013122061</v>
+        <v>20.05417909926955</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>159.1566269567194</v>
+        <v>26.90480688427498</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>157.0232313805118</v>
+        <v>13.1275281815766</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>164.8891637629299</v>
+        <v>30.22110555829492</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>145.2826663908418</v>
+        <v>11.59475916343741</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>154.2034094977031</v>
+        <v>37.97552782698091</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>157.1292556222268</v>
+        <v>42.25948307830864</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>148.7734240610033</v>
+        <v>16.24590895888311</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>158.4492239145891</v>
+        <v>35.69367032598095</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>161.659967454653</v>
+        <v>41.39748537868336</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>159.5453786994419</v>
+        <v>29.20535011461454</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>167.5159098441825</v>
+        <v>45.56878304086904</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>170.1835781753378</v>
+        <v>49.79906963460364</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>161.8113167569202</v>
+        <v>49.09034499531408</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>171.3900998446939</v>
+        <v>55.79106238036318</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>175.0074786396935</v>
+        <v>59.0208226977645</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>153.7219788061755</v>
+        <v>26.610949065788</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>168.9773153545553</v>
+        <v>49.25417764725024</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>173.8414120876619</v>
+        <v>55.37383348118624</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>144.3336818935146</v>
+        <v>13.78199453822074</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>153.1544833030389</v>
+        <v>43.51138089863791</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>156.044285744678</v>
+        <v>48.58330134349253</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>147.6700307269226</v>
+        <v>13.97398351239739</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>157.2386865932574</v>
+        <v>36.98230976839142</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>160.4088534021422</v>
+        <v>43.45442823870255</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>158.2947243581074</v>
+        <v>28.70750716545433</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>166.1776409807635</v>
+        <v>47.98440838879456</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>145.4899328411028</v>
+        <v>11.14862155701609</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>154.4074767881179</v>
+        <v>37.91663675852357</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>157.3311238101937</v>
+        <v>42.29644392368373</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>148.9955641875897</v>
+        <v>16.73163729157831</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>158.6679137390381</v>
+        <v>36.64298155772042</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>161.8762683937201</v>
+        <v>42.42925605394939</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>159.7690885295083</v>
+        <v>29.63994974014074</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>167.7368000992954</v>
+        <v>46.41184883267742</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>170.402468134247</v>
+        <v>50.72096511044555</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>162.0308286826908</v>
+        <v>50.31710731143473</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>171.6058204504513</v>
+        <v>57.11966085164613</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>175.2206909986064</v>
+        <v>60.45980532240999</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>153.9381268325337</v>
+        <v>27.45587244492968</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>169.187923702242</v>
+        <v>50.63876648788314</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>174.0484817597527</v>
+        <v>56.85426071118442</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>144.5382270012228</v>
+        <v>13.76462740906145</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>153.35586137465</v>
+        <v>43.92015494649993</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>156.2434926520689</v>
+        <v>49.11329400120367</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>147.889307862866</v>
+        <v>15.03171609076145</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>157.454547006938</v>
+        <v>38.54464456145043</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>160.6223560835009</v>
+        <v>45.12750804238467</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>158.5155545285359</v>
+        <v>29.71905662872126</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>166.3956784082263</v>
+        <v>49.44141500510236</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>144.9997878250413</v>
+        <v>6.458380531222371</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>153.9225133738622</v>
+        <v>32.06859231969824</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>156.8490048802048</v>
+        <v>37.1032813489179</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>148.4587788776836</v>
+        <v>11.03517358412131</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>158.1366231082515</v>
+        <v>29.78487324786536</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>161.3481175636541</v>
+        <v>36.32048720621694</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>159.2315066609895</v>
+        <v>23.09058989525305</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>167.2036239178598</v>
+        <v>38.84039445616122</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>169.8719298877442</v>
+        <v>43.79101489139173</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>161.5047152847808</v>
+        <v>40.98362752277576</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>171.0857843408156</v>
+        <v>47.60961988776131</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>174.7034501002884</v>
+        <v>51.26301685208924</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>153.4206971306111</v>
+        <v>19.00674362591183</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>168.6796857398933</v>
+        <v>40.84272734931518</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>173.5447821708508</v>
+        <v>47.89949530143497</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>144.0569991636692</v>
+        <v>7.997683017104123</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>152.8797772606638</v>
+        <v>36.89088991052411</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>155.7701977000453</v>
+        <v>42.7485264910692</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>147.3619282527239</v>
+        <v>7.955700953907932</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>156.9326247720271</v>
+        <v>30.20867381592015</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>160.1035108333243</v>
+        <v>37.5480186387471</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>157.9874597327425</v>
+        <v>21.65849847058756</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>165.871961144337</v>
+        <v>40.27125281673143</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>167.5213442969838</v>
+        <v>35.38495702049852</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>159.2136634780213</v>
+        <v>32.30036472509744</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>168.6683200426446</v>
+        <v>40.68273101934502</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>172.2388209313821</v>
+        <v>44.64615788429243</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>151.2404454951215</v>
+        <v>11.12967134571601</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>166.2913812421872</v>
+        <v>35.4225911183654</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>171.0923201172356</v>
+        <v>42.47838603013234</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>150.2410031685801</v>
+        <v>4.390277255722914</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>159.0598090862857</v>
+        <v>33.2286335368001</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>161.9727375128096</v>
+        <v>39.34218489219612</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>154.0316701091515</v>
+        <v>1.228063915676007</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>163.5980059719019</v>
+        <v>23.66471777794787</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>166.7962609182752</v>
+        <v>31.31352835142489</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>164.9108768523249</v>
+        <v>17.42384444416725</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>172.7941023722341</v>
+        <v>36.20565791990109</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>175.4517058089145</v>
+        <v>42.03249445600416</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>167.2364142934464</v>
+        <v>42.54352748467761</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>176.7298996148145</v>
+        <v>51.23142014161575</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>180.331700843575</v>
+        <v>56.12717714930939</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>159.3125278810456</v>
+        <v>18.67249697730104</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>174.3766523761363</v>
+        <v>45.30478608524966</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>179.2207576235557</v>
+        <v>53.21739560140701</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>168.8114601924711</v>
+        <v>52.82111970722437</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>160.4753233762312</v>
+        <v>52.14350661358344</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>169.9490339509251</v>
+        <v>61.0551445171274</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>173.5225275288453</v>
+        <v>64.9691582023584</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>152.4619641047146</v>
+        <v>29.02965409289934</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>167.5447198109746</v>
+        <v>56.23101970679858</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>172.3490515214798</v>
+        <v>62.85266939120675</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>151.4057289979843</v>
+        <v>18.04657940984232</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>160.243289948588</v>
+        <v>49.46882810708706</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>163.1580285835698</v>
+        <v>55.15449420689518</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>155.2716777565814</v>
+        <v>18.40496844299997</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>164.8584005818159</v>
+        <v>43.38764706366288</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>168.0586888772182</v>
+        <v>50.54309428110585</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>166.1931071155442</v>
+        <v>35.83940384909246</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>174.0932492176</v>
+        <v>56.84888448142738</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>176.7524899334294</v>
+        <v>62.24881374632528</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>168.5091733210173</v>
+        <v>65.30083170261635</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>178.0216596303959</v>
+        <v>74.48633862625493</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>181.6264088521588</v>
+        <v>79.28292738315713</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>160.545555981265</v>
+        <v>39.44279373674973</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>175.6413470254976</v>
+        <v>69.03217028747672</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>180.488815921046</v>
+        <v>76.38326896989834</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>169.0275232112404</v>
+        <v>54.38141887066077</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>160.6920280164192</v>
+        <v>53.92436172585111</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>170.1619840964704</v>
+        <v>62.93608588049288</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>173.7330009781443</v>
+        <v>66.9748326839951</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>152.6753530754559</v>
+        <v>30.46255006282288</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>167.7526261922321</v>
+        <v>58.24914601460419</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>172.5534653670803</v>
+        <v>64.99743234815091</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>151.6058055586305</v>
+        <v>19.23773479526632</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>160.4401789180132</v>
+        <v>51.10243536440204</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>163.3527299776839</v>
+        <v>56.86601283668928</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>155.4862268910856</v>
+        <v>20.73418803678876</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>165.0695098040655</v>
+        <v>46.23562201237208</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>168.2674201394779</v>
+        <v>53.45601764409143</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>166.4090352171276</v>
+        <v>38.14718781153053</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>174.3063650969452</v>
+        <v>59.61564609421318</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>176.9636152933073</v>
+        <v>65.07955368451891</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>168.7209713652767</v>
+        <v>68.36532647540163</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>178.2296720978861</v>
+        <v>77.64842674875099</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>181.831909430397</v>
+        <v>82.54586939797184</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>160.7541409177869</v>
+        <v>42.14240474356683</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>175.8444183470913</v>
+        <v>72.33105035484866</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>180.6883627265411</v>
+        <v>79.76006523240308</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>168.5063918619113</v>
+        <v>45.85865835786888</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>160.1751596008227</v>
+        <v>42.79648178019032</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>169.6511543397554</v>
+        <v>51.64867931123374</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>173.2249024933927</v>
+        <v>56.02531385977426</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>152.1669362143595</v>
+        <v>20.28130171052421</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>167.2533293952053</v>
+        <v>46.60100152170623</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>172.0586144503</v>
+        <v>54.2028697225998</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>151.1243850040468</v>
+        <v>13.15770949258213</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>159.9638928926639</v>
+        <v>43.77018031185683</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>162.8793723560585</v>
+        <v>50.28386540124133</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>154.9593442047294</v>
+        <v>13.18815887020367</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>164.5480784666439</v>
+        <v>37.44983725634968</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>167.7492251149702</v>
+        <v>45.50923535124944</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>165.8814658989633</v>
+        <v>29.64328403604391</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>173.7831708733897</v>
+        <v>50.0166225888228</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>176.4431357983584</v>
+        <v>56.20044934024439</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>168.204812460028</v>
+        <v>56.83904085959186</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>177.71956839371</v>
+        <v>66.0027508458564</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>181.3247486107223</v>
+        <v>71.28958354587749</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>160.2465520727651</v>
+        <v>31.48550687983456</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>175.3459244489535</v>
+        <v>60.23395887124299</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>180.1945694702989</v>
+        <v>68.61280777567997</v>
       </c>
     </row>
   </sheetData>
